--- a/excels/Suite.xlsx
+++ b/excels/Suite.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>TSID</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>ABA_REPORTS</t>
+  </si>
+  <si>
+    <t>TS05</t>
+  </si>
+  <si>
+    <t>TS06</t>
+  </si>
+  <si>
+    <t>CLASS_STATUS</t>
+  </si>
+  <si>
+    <t>BUSSINESS_WEEK_REPORT</t>
+  </si>
+  <si>
+    <t>BUSSINESS_WEEK_REPORTS</t>
   </si>
 </sst>
 </file>
@@ -438,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -535,6 +550,40 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
